--- a/Stay_City.xlsx
+++ b/Stay_City.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Desktop\TAK Project\Ver_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F1F6AC-8884-4434-A1B2-6283B7F2405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F012F-19AE-4FD8-8387-BCF11DDEEA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E404B6D5-2B64-4F1F-BEAE-FB5BBA39DD11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Stay City</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Bhopal</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Pachmarhi</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1DEB72-042A-4F53-ABFA-42F454C52A27}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,6 +531,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
